--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter06/Format_06_04.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter06/Format_06_04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2870F4-2E2F-4928-A422-F009F04E9BF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA05C067-0CA0-42F7-A615-93C20AFA479F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="250">
   <si>
     <t>OrderNum</t>
   </si>
@@ -855,10 +855,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -885,7 +885,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -914,16 +914,25 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -932,40 +941,168 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:size val="6"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:marker>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -990,13 +1127,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1066,8 +1232,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="509668640"/>
         <c:axId val="509668968"/>
       </c:barChart>
@@ -1084,11 +1250,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1102,14 +1268,16 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509668968"/>
@@ -1130,9 +1298,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1158,14 +1326,16 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509668640"/>
@@ -1197,14 +1367,16 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1220,17 +1392,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1241,7 +1424,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1269,13 +1452,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1309,29 +1489,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1339,26 +1523,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1367,7 +1559,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1376,20 +1570,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1398,35 +1587,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1438,30 +1627,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1477,18 +1667,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1498,20 +1688,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1522,17 +1712,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1541,14 +1731,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1560,28 +1749,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1593,17 +1776,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1612,17 +1794,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1631,17 +1813,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1650,24 +1831,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1675,8 +1858,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1684,14 +1880,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1703,9 +1899,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1714,14 +1920,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1730,7 +1935,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1739,7 +1946,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1747,9 +1954,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1760,7 +1967,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1769,14 +1978,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5225,7 +5428,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DEE7F2C-2547-4874-A996-21A479E4A330}" name="PivotTable4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DEE7F2C-2547-4874-A996-21A479E4A330}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5374,7 +5577,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5673,10 +5876,10 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -5758,7 +5961,7 @@
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
